--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -436,224 +436,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hospitalization – survey time, days</t>
+          <t>Participants, n</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1300 [IQR: 800 - 1400]
-range: 390 - 1600
-n = 307</t>
+          <t>307</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>Hospitalization – survey time, days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>female: 45% (n = 137)
-male: 55% (n = 170)
-n = 307</t>
+          <t>1300 [IQR: 800 - 1400]
+range: 390 - 1600</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>age, accident, years</t>
+          <t>Age, accident, years</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>51 [IQR: 33 - 60]
-range: 18 - 82
-n = 307</t>
+range: 18 - 82</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>residence in the Alps</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>73% (n = 225)
-n = 307</t>
+          <t>female: 45% (n = 137)
+male: 55% (n = 170)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>Residence in the Alps</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
+        <is>
+          <t>73% (n = 225)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>primary: 3.3% (n = 10)
 apprenticeship: 13% (n = 39)
 secondary: 38% (n = 115)
-tertiary: 45% (n = 136)
-n = 300</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>employment</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+tertiary: 45% (n = 136)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>employed: 68% (n = 210)
 household: 3.3% (n = 10)
 unemployed: 0.33% (n = 1)
 student: 10% (n = 32)
-retired: 18% (n = 54)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>sport profession</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5.2% (n = 16)
-n = 307</t>
+retired: 18% (n = 54)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trauma-risk profession</t>
+          <t>Sport profession</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.2% (n = 22)
-n = 307</t>
+          <t>5.2% (n = 16)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>income/year</t>
+          <t>Trauma-risk profession</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
+        <is>
+          <t>7.2% (n = 22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Income/year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>no income: 21% (n = 63)
 &lt; 15000 Euro: 5.5% (n = 17)
 15000 - 30000 Euro: 13% (n = 39)
 30000 - 45000 Euro: 19% (n = 59)
-&gt; 45000 Euro: 42% (n = 129)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>7.8% (n = 24)
-n = 307</t>
+&gt; 45000 Euro: 42% (n = 129)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>drug consumption</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2.3% (n = 7)
-n = 307</t>
+          <t>7.8% (n = 24)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>somatic comorbidity</t>
+          <t>Drug consumption</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15% (n = 47)
-n = 307</t>
+          <t>2.3% (n = 7)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>somatic comorbidity type</t>
+          <t>Somatic comorbidity</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>none: 85% (n = 260)
-CVD: 2.9% (n = 9)
-metabolic: 1.3% (n = 4)
-pulmonary: 0.65% (n = 2)
-neurological: 1.3% (n = 4)
-rheumatoid: 0.33% (n = 1)
-skin: 0.33% (n = 1)
-cancer: 0.65% (n = 2)
-other: 7.8% (n = 24)
-n = 307</t>
+          <t>15% (n = 47)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mental illness</t>
+          <t>Mental illness</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5.2% (n = 16)
-n = 307</t>
+          <t>5.2% (n = 16)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>traumatic event before/DIA-X</t>
+          <t>Traumatic event before/DIA-X</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40% (n = 124)
-n = 307</t>
+          <t>40% (n = 124)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>self-reported traumatic event type</t>
+          <t>Self-reported traumatic event type</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -665,15 +642,14 @@
 rape: 0.33% (n = 1)
 severe disease: 2% (n = 6)
 natural diseaster: 0.65% (n = 2)
-war: 0.33% (n = 1)
-n = 307</t>
+war: 0.33% (n = 1)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>self-reported traumatic event past</t>
+          <t>Self-reported traumatic event past</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -682,8 +658,7 @@
 0 – 1 years ago: 0.33% (n = 1)
 1 – 5 years ago: 3.9% (n = 12)
 5 – 10 years ago: 1.3% (n = 4)
-10+ years ago: 6.2% (n = 19)
-n = 307</t>
+10+ years ago: 6.2% (n = 19)</t>
         </is>
       </c>
     </row>
@@ -694,7 +669,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,7 +690,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>prior sport accidents</t>
+          <t>Prior sport accidents</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +703,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sport type</t>
+          <t>Sport type</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -745,7 +720,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>alone during the accident</t>
+          <t>Alone during the accident</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -758,7 +733,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>accident culprit</t>
+          <t>Accident culprit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -776,7 +751,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>injured persons</t>
+          <t>Injured persons</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -791,7 +766,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rescue</t>
+          <t>Rescue</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -807,27 +782,10 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rescue mode</t>
+          <t>Injury severity class, AIS score</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>no rescue team involved: 71% (n = 218)
-airborne: 13% (n = 40)
-on ground with stretcher: 5.2% (n = 16)
-on ground by foot: 2.3% (n = 7)
-other: 8.5% (n = 26)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>injury severity class, AIS score</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
         <is>
           <t>1: 37% (n = 104)
 2: 33% (n = 93)
@@ -836,182 +794,52 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Psychological support</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5.2% (n = 16)
+n = 307</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>head injury</t>
+          <t>Somatic accident aftermath</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13% (n = 36)
-n = 279</t>
+          <t>37% (n = 115)
+n = 307</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>face injury</t>
+          <t>Returned to same sport</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12% (n = 33)
-n = 279</t>
+          <t>85% (n = 262)
+n = 307</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>neck injury</t>
+          <t>Behavior post accident</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>1.1% (n = 3)
-n = 279</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>chest injury</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>11% (n = 32)
-n = 279</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>abdomen injury</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3.2% (n = 9)
-n = 279</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>spine region injury</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10% (n = 28)
-n = 279</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>upper limb injury</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>42% (n = 118)
-n = 279</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>lower limb injury</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>44% (n = 123)
-n = 279</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>other injury</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>12% (n = 34)
-n = 278</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>psychological support</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>5.2% (n = 16)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>psychological therapy post accident</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>6.2% (n = 19)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>somatic accident aftermath</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>37% (n = 115)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>returned to same sport</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>85% (n = 262)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>behavior post accident</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
         <is>
           <t>no change: 35% (n = 106)
 more cautious: 65% (n = 199)
@@ -1027,7 +855,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1048,526 +876,219 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PSS4 score</t>
+          <t>Participants, n</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4 [IQR: 3 - 6]
-range: 0 - 14
-n = 307</t>
+          <t>307</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GAD-7 score</t>
+          <t>PSS4 score</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1 [IQR: 0 - 3]
-range: 0 - 15
-n = 307</t>
+          <t>4 [IQR: 3 - 6]
+range: 0 - 14</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anxiety+ (GAD-7 ≥10)</t>
+          <t>GAD-7 score</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.3% (n = 7)
-n = 307</t>
+          <t>1 [IQR: 0 - 3]
+range: 0 - 15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PHQ-9 score</t>
+          <t>Anxiety+ (GAD-7 ≥10)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2 [IQR: 1 - 5]
-range: 0 - 16
-n = 307</t>
+          <t>2.3% (n = 7)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Depression+ (PHQ-9 ≥11)</t>
+          <t>PHQ-9 score</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.5% (n = 17)
-n = 307</t>
+          <t>2 [IQR: 1 - 5]
+range: 0 - 16</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PHQ-15 score</t>
+          <t>Depression+ (PHQ-9 ≥11)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2 [IQR: 1 - 4]
-range: 0 - 23
-n = 307</t>
+          <t>5.5% (n = 17)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Somatization+ (PHQ-15 ≥11)</t>
+          <t>PHQ-15 score</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4.9% (n = 15)
-n = 307</t>
+          <t>2 [IQR: 1 - 4]
+range: 0 - 23</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score</t>
+          <t>Somatization+ (PHQ-15 ≥11)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.6 [IQR: 1.4 - 2]
-range: 1 - 4
-n = 307</t>
+          <t>4.9% (n = 15)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 QoL score</t>
+          <t>EUROHIS-QOL 8 score</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 3
-n = 307</t>
+          <t>1.6 [IQR: 1.4 - 2]
+range: 1 - 4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 health score</t>
+          <t>SOC-9L score</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5
-n = 307</t>
+          <t>19 [IQR: 16 - 25]
+range: 10 - 49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 energy score</t>
+          <t>RS13 score</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5
-n = 307</t>
+          <t>78 [IQR: 70 - 85]
+range: 15 - 91</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 finances score</t>
+          <t>RS13 coping class</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5
-n = 307</t>
+          <t>low: 18% (n = 56)
+moderate: 14% (n = 42)
+high: 68% (n = 209)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 activity score</t>
+          <t>Abuse+ (CAGE ≥2)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5
-n = 307</t>
+          <t>9.4% (n = 29)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 self-esteem score</t>
+          <t>Flashback frequency</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 relationship score</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 housing score</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 5
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SOC-9L score</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>19 [IQR: 16 - 25]
-range: 10 - 49
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>RS13 score</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>78 [IQR: 70 - 85]
-range: 15 - 91
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>RS13 coping class</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>low: 18% (n = 56)
-moderate: 14% (n = 42)
-high: 68% (n = 209)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Abuse+ (CAGE ≥2)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>9.4% (n = 29)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>flashbacks during sport</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>40% (n = 122)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>flashback frequency</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
         <is>
           <t>no flashbacks: 60% (n = 185)
 &gt; 1 – 2 per week: 2.6% (n = 8)
 several per month: 5.2% (n = 16)
 1 – 2 per month: 9.8% (n = 30)
-1 – 2 per year: 22% (n = 68)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+1 – 2 per year: 22% (n = 68)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>PCL-5 DSM-5 score</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>3 [IQR: 1 - 7]
-range: 0 - 44
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 cluster B score</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 2]
-range: 0 - 15
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>PTSD cluster B+</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>11% (n = 33)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 cluster C score</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 1]
-range: 0 - 8
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>PTSD cluster C+</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>8.1% (n = 25)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 cluster D score</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1 [IQR: 0 - 2]
-range: 0 - 15
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>PTSD cluster D+</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>5.2% (n = 16)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 cluster E score</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1 [IQR: 0 - 2]
-range: 0 - 13
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>PTSD cluster E+</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>7.8% (n = 24)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+range: 0 - 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>PTSD+ (at least one cluster)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>19% (n = 58)
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>19% (n = 58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>PTGI score</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>32 [IQR: 16 - 48]
-range: 0 - 100
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>PTGI I relations score</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>12 [IQR: 6 - 18]
-range: 0 - 35
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>PTGI II possibilities score</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>5 [IQR: 1 - 9]
-range: 0 - 25
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PTGI III personal strength score</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>8 [IQR: 4 - 11]
-range: 0 - 20
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PTGI IV spiritual score</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 2]
-range: 0 - 10
-n = 307</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>PTGI V life appreciation score</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>6 [IQR: 2 - 9]
-range: 0 - 15
-n = 307</t>
+range: 0 - 100</t>
         </is>
       </c>
     </row>

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -415,7 +415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hospitalization – survey time, days</t>
+          <t>Ward – survey time, days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -461,7 +461,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Age, accident, years</t>
+          <t>Age, years</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -474,191 +474,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Age class</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>young: 20% (n = 61)
+middle: 66% (n = 202)
+elderly: 14% (n = 44)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Sex</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>female: 45% (n = 137)
 male: 55% (n = 170)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Residence in the Alps</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>73% (n = 225)</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Residence in the Alps</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>73% (n = 225)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Education</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>primary: 3.3% (n = 10)
-apprenticeship: 13% (n = 39)
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>primary/apprenticeship: 16% (n = 49)
 secondary: 38% (n = 115)
 tertiary: 45% (n = 136)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Employment</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>employed: 68% (n = 210)
-household: 3.3% (n = 10)
-unemployed: 0.33% (n = 1)
+unemployed: 3.6% (n = 11)
 student: 10% (n = 32)
 retired: 18% (n = 54)</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sport profession</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5.2% (n = 16)</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Trauma-risk profession</t>
+          <t>Sport profession</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.2% (n = 22)</t>
+          <t>5.2% (n = 16)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Income/year</t>
+          <t>Trauma-risk profession</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>no income: 21% (n = 63)
-&lt; 15000 Euro: 5.5% (n = 17)
-15000 - 30000 Euro: 13% (n = 39)
-30000 - 45000 Euro: 19% (n = 59)
-&gt; 45000 Euro: 42% (n = 129)</t>
+          <t>7.2% (n = 22)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Income/year</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7.8% (n = 24)</t>
+          <t>no income: 21% (n = 63)
+&lt; 30000 EUR: 18% (n = 56)
+30000 - 45000 EUR: 19% (n = 59)
+≥ 45000 EUR: 42% (n = 129)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Drug consumption</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.3% (n = 7)</t>
+          <t>7.8% (n = 24)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Somatic comorbidity</t>
+          <t>Substance abuse (CAGE ≥2)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15% (n = 47)</t>
+          <t>9.4% (n = 29)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mental illness</t>
+          <t>Somatic illness</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5.2% (n = 16)</t>
+          <t>15% (n = 47)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Traumatic event before/DIA-X</t>
+          <t>Mental illness</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40% (n = 124)</t>
+          <t>5.2% (n = 16)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Self-reported traumatic event type</t>
+          <t>Prior traumatic event/DIA-X</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>none: 88% (n = 271)
-severe accident: 6.2% (n = 19)
-physical assult: 1.6% (n = 5)
-sexual molestation: 0.65% (n = 2)
-rape: 0.33% (n = 1)
-severe disease: 2% (n = 6)
-natural diseaster: 0.65% (n = 2)
-war: 0.33% (n = 1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Self-reported traumatic event past</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>no trauma event: 88% (n = 271)
-0 – 1 years ago: 0.33% (n = 1)
-1 – 5 years ago: 3.9% (n = 12)
-5 – 10 years ago: 1.3% (n = 4)
-10+ years ago: 6.2% (n = 19)</t>
+          <t>40% (n = 124)</t>
         </is>
       </c>
     </row>
@@ -669,7 +645,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -739,11 +715,7 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>self: 77% (n = 237)
-tour partner: 1.3% (n = 4)
-third party: 8.1% (n = 25)
-blow of fate: 3.9% (n = 12)
-natural diseaster: 0.65% (n = 2)
-other reason: 8.8% (n = 27)
+non-self: 23% (n = 70)
 n = 307</t>
         </is>
       </c>
@@ -756,10 +728,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>only self: 93% (n = 195)
-self and partner: 5.2% (n = 11)
-3+ persons: 1.9% (n = 4)
-n = 210</t>
+          <t>only self: 64% (n = 195)
+self and partner: 3.6% (n = 11)
+3+ persons: 1.3% (n = 4)
+no information: 32% (n = 97)
+n = 307</t>
         </is>
       </c>
     </row>
@@ -772,9 +745,8 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>self: 50% (n = 155)
-tour partner: 13% (n = 39)
+partner/third party: 21% (n = 63)
 rescue team: 29% (n = 89)
-third party: 7.8% (n = 24)
 n = 307</t>
         </is>
       </c>
@@ -782,27 +754,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Injury severity class, AIS score</t>
+          <t>Injury severity, AIS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1: 37% (n = 104)
-2: 33% (n = 93)
-3+: 29% (n = 82)
-n = 279</t>
+          <t>1: 37% (n = 108)
+2: 35% (n = 103)
+3+: 28% (n = 83)
+n = 294</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Psychological support</t>
+          <t>Hospitalized</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5.2% (n = 16)
+          <t>26% (n = 80)
 n = 307</t>
         </is>
       </c>
@@ -810,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Somatic accident aftermath</t>
+          <t>Surgery</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>37% (n = 115)
+          <t>14% (n = 43)
 n = 307</t>
         </is>
       </c>
@@ -823,12 +795,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Returned to same sport</t>
+          <t>Psychological support</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>85% (n = 262)
+          <t>9.1% (n = 28)
 n = 307</t>
         </is>
       </c>
@@ -836,14 +808,68 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Behavior post accident</t>
+          <t>Psychological support need</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
+        <is>
+          <t>7.5% (n = 23)
+n = 307</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Somatic accident aftermath</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>37% (n = 115)
+n = 307</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Returned to same sport</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>85% (n = 262)
+n = 307</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Caution post accident</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>no change: 35% (n = 106)
 more cautious: 65% (n = 199)
 less cautious: 0.65% (n = 2)
+n = 307</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Flashback frequency</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>none: 60% (n = 185)
+&gt; 1/month: 18% (n = 54)
+&gt; 1/year: 22% (n = 68)
 n = 307</t>
         </is>
       </c>
@@ -855,7 +881,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -888,137 +914,124 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PSS4 score</t>
+          <t>GAD-7 score</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4 [IQR: 3 - 6]
-range: 0 - 14</t>
+          <t>1 [IQR: 0 - 3]
+range: 0 - 15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GAD-7 score</t>
+          <t>Anxiety symptoms (GAD-7 ≥10)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1 [IQR: 0 - 3]
-range: 0 - 15</t>
+          <t>2.3% (n = 7)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Anxiety+ (GAD-7 ≥10)</t>
+          <t>PHQ-9 score</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.3% (n = 7)</t>
+          <t>2 [IQR: 1 - 5]
+range: 0 - 16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PHQ-9 score</t>
+          <t>Depression symptoms (PHQ-9 ≥11)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2 [IQR: 1 - 5]
-range: 0 - 16</t>
+          <t>5.5% (n = 17)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Depression+ (PHQ-9 ≥11)</t>
+          <t>PHQ-15 score</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5.5% (n = 17)</t>
+          <t>2 [IQR: 1 - 4]
+range: 0 - 23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PHQ-15 score</t>
+          <t>Somatization symptoms (PHQ-15 ≥11)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2 [IQR: 1 - 4]
-range: 0 - 23</t>
+          <t>4.9% (n = 15)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Somatization+ (PHQ-15 ≥11)</t>
+          <t>EUROHIS-QOL 8 score</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.9% (n = 15)</t>
+          <t>1.6 [IQR: 1.4 - 2]
+range: 1 - 4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score</t>
+          <t>SOC-9L score</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.6 [IQR: 1.4 - 2]
-range: 1 - 4</t>
+          <t>19 [IQR: 16 - 25]
+range: 10 - 49</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOC-9L score</t>
+          <t>RS13 score</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19 [IQR: 16 - 25]
-range: 10 - 49</t>
+          <t>78 [IQR: 70 - 85]
+range: 15 - 91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RS13 score</t>
+          <t>RS13 coping class</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>78 [IQR: 70 - 85]
-range: 15 - 91</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>RS13 coping class</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
         <is>
           <t>low: 18% (n = 56)
 moderate: 14% (n = 42)
@@ -1026,69 +1039,41 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PTGI score</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>32 [IQR: 16 - 48]
+range: 0 - 100</t>
+        </is>
+      </c>
+    </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Abuse+ (CAGE ≥2)</t>
+          <t>PCL-5 DSM-5 score</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9.4% (n = 29)</t>
+          <t>3 [IQR: 1 - 7]
+range: 0 - 44</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Flashback frequency</t>
+          <t>PTSD+ (at least one domain)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>no flashbacks: 60% (n = 185)
-&gt; 1 – 2 per week: 2.6% (n = 8)
-several per month: 5.2% (n = 16)
-1 – 2 per month: 9.8% (n = 30)
-1 – 2 per year: 22% (n = 68)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 score</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3 [IQR: 1 - 7]
-range: 0 - 44</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PTSD+ (at least one cluster)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>19% (n = 58)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PTGI score</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>32 [IQR: 16 - 48]
-range: 0 - 100</t>
         </is>
       </c>
     </row>

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ward – survey time, days</t>
+          <t>Hospital visit – survey time, days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -593,7 +593,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Substance abuse (CAGE ≥2)</t>
+          <t>Alcohol abuse (CAGE ≥2)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -605,7 +605,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Somatic illness</t>
+          <t>Pre-existing somatic illness</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mental illness</t>
+          <t>Pre-existing mental illness</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Injury severity, AIS</t>
+          <t>Injury severity class, AIS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -474,14 +474,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Age class</t>
+          <t>Age class, years</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>young: 20% (n = 61)
-middle: 66% (n = 202)
-elderly: 14% (n = 44)</t>
+          <t>16-30: 20% (n = 61)
+31-65: 66% (n = 202)
+&gt;65: 14% (n = 44)</t>
         </is>
       </c>
     </row>
@@ -605,12 +605,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pre-existing somatic illness</t>
+          <t>Pre-existing somatic illness type</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15% (n = 47)</t>
+          <t>none: 85% (n = 260)
+CVD: 2.9% (n = 9)
+neurological: 1.3% (n = 4)
+metabolic: 1.3% (n = 4)
+pulmonary: 0.65% (n = 2)
+cancer: 0.65% (n = 2)
+rheumatoid: 0.33% (n = 1)
+skin: 0.33% (n = 1)
+other: 7.8% (n = 24)</t>
         </is>
       </c>
     </row>
@@ -686,7 +694,7 @@
         <is>
           <t>ski/snowboard: 64% (n = 197)
 sledding: 3.9% (n = 12)
-mountain: 14% (n = 42)
+climbing/hiking/mountaineering: 14% (n = 42)
 biking: 16% (n = 48)
 other: 2.6% (n = 8)
 n = 307</t>
@@ -994,8 +1002,8 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.6 [IQR: 1.4 - 2]
-range: 1 - 4</t>
+          <t>4.4 [IQR: 4 - 4.6]
+range: 2 - 5</t>
         </is>
       </c>
     </row>

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -415,7 +415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -518,7 +518,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>primary/apprenticeship: 16% (n = 49)
+          <t>primary: 16% (n = 49)
 secondary: 38% (n = 115)
 tertiary: 45% (n = 136)</t>
         </is>
@@ -593,7 +593,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Alcohol abuse (CAGE ≥2)</t>
+          <t>Problematic alcohol use (CAGE ≥2)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -605,7 +605,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pre-existing somatic illness type</t>
+          <t>Pre-existing physical illness type</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -625,24 +625,123 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pre-existing mental illness</t>
+          <t>Number of prior traumatic events/DIA-X</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.2% (n = 16)</t>
+          <t>none: 60% (n = 183)
+1: 30% (n = 92)
+2: 7.5% (n = 23)
+3+: 2.9% (n = 9)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Prior traumatic event/DIA-X</t>
+          <t>Pre-existing mental disorder</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>40% (n = 124)</t>
+          <t>5.2% (n = 16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Affective disorder</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2.3% (n = 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Personality disorder</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.33% (n = 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Post-traumatic stress disorder</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.65% (n = 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Somatoform disorder</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.6% (n = 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Anxiety disorder</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.65% (n = 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Attention-deficit hyperactivity disorder</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.33% (n = 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Addiction</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.33% (n = 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Bulimia nervosa</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.33% (n = 1)</t>
         </is>
       </c>
     </row>
@@ -692,9 +791,9 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ski/snowboard: 64% (n = 197)
+          <t>ski/snowboard/cross-country: 64% (n = 197)
 sledding: 3.9% (n = 12)
-climbing/hiking/mountaineering: 14% (n = 42)
+climbing/hiking/mountaineering/skitour: 14% (n = 42)
 biking: 16% (n = 48)
 other: 2.6% (n = 8)
 n = 307</t>
@@ -717,7 +816,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accident culprit</t>
+          <t>Responsible for the accident</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -753,7 +852,7 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>self: 50% (n = 155)
-partner/third party: 21% (n = 63)
+comrade: 21% (n = 63)
 rescue team: 29% (n = 89)
 n = 307</t>
         </is>
@@ -803,7 +902,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Psychological support</t>
+          <t>Psychological or psychiatric support received after the accident</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -816,7 +915,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Psychological support need</t>
+          <t>Self-reported need for psychological support after the accident</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -829,7 +928,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Somatic accident aftermath</t>
+          <t>Persisting physical consequences of the accident</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -842,7 +941,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Returned to same sport</t>
+          <t>Returned to the same mountain sport after the accident</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -855,7 +954,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Caution post accident</t>
+          <t>Behavior during mountain sport after the accident</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -870,14 +969,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Flashback frequency</t>
+          <t>Flashbacks during mountain sport</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>none: 60% (n = 185)
+&gt; 1/year: 22% (n = 68)
 &gt; 1/month: 18% (n = 54)
-&gt; 1/year: 22% (n = 68)
 n = 307</t>
         </is>
       </c>
@@ -985,7 +1084,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Somatization symptoms (PHQ-15 ≥11)</t>
+          <t>Somatic symptoms (PHQ-15 ≥11)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -997,7 +1096,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score</t>
+          <t>EUROHIS-QOL 8 mean score</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1036,7 +1135,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RS13 coping class</t>
+          <t>RS13 resilience class</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1063,7 +1162,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 score</t>
+          <t>PCL-5 score</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1076,7 +1175,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PTSD+ (at least one domain)</t>
+          <t>PTSD+ (at least one PCL-5 domain)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -415,7 +415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -461,7 +461,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Age, years</t>
+          <t>Age at the accident, years</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -474,7 +474,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Age class, years</t>
+          <t>Age at the accident, class, years</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Highest education grade</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -527,7 +527,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Employment at the accident</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -542,7 +542,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sport profession</t>
+          <t>Mountain sport profession</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -554,7 +554,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Trauma-risk profession</t>
+          <t>Search and rescue profession</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pre-existing mental disorder</t>
+          <t>Pre-existing diagnosed mental disorder</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -652,96 +652,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Affective disorder</t>
+          <t>Type of pre-existing diagnosed mental disorder</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.3% (n = 7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Personality disorder</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.33% (n = 1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Post-traumatic stress disorder</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0.65% (n = 2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Somatoform disorder</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1.6% (n = 5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Anxiety disorder</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.65% (n = 2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Attention-deficit hyperactivity disorder</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.33% (n = 1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Addiction</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0.33% (n = 1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Bulimia nervosa</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0.33% (n = 1)</t>
+          <t>affective disorder: 2.3% (n = 7)
+personality disorder: 0.33% (n = 1)
+post-traumatic stress disorder: 0.65% (n = 2)
+somatoform disorder: 1.6% (n = 5)
+anxiety disorder: 0.65% (n = 2)
+attention-deficit hyperactivity disorder: 0.33% (n = 1)
+addiction: 0.33% (n = 1)
+bulimia nervosa: 0.33% (n = 1)</t>
         </is>
       </c>
     </row>
@@ -773,7 +696,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prior sport accidents</t>
+          <t>Prior mountain sport accidents</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -786,7 +709,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sport type</t>
+          <t>Mountain sport type</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -830,7 +753,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Injured persons</t>
+          <t>Number of injured persons</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -846,13 +769,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rescue</t>
+          <t>Rescue mode</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>self: 50% (n = 155)
-comrade: 21% (n = 63)
+companion: 21% (n = 63)
 rescue team: 29% (n = 89)
 n = 307</t>
         </is>
@@ -889,7 +812,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Surgery</t>
+          <t>Surgical therapy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -902,7 +825,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Psychological or psychiatric support received after the accident</t>
+          <t>Psychological/psychiatric support post accident</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -915,7 +838,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Self-reported need for psychological support after the accident</t>
+          <t>Psychological/psychiatric support need post accident</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -928,7 +851,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Persisting physical consequences of the accident</t>
+          <t>Physical health consequences of the accident</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -941,7 +864,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Returned to the same mountain sport after the accident</t>
+          <t>Returned to same mountain sport post accident</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -954,7 +877,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Behavior during mountain sport after the accident</t>
+          <t>Caution during mountain sport post accident</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -969,7 +892,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Flashbacks during mountain sport</t>
+          <t>Flashback frequency during mountain sport</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1034,7 +957,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anxiety symptoms (GAD-7 ≥10)</t>
+          <t>Clinically relevant anxiety symptoms (GAD-7 ≥10)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1059,7 +982,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Depression symptoms (PHQ-9 ≥11)</t>
+          <t>Clinically relevant depression symptoms (PHQ-9 ≥11)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1084,7 +1007,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Somatic symptoms (PHQ-15 ≥11)</t>
+          <t>Clinically relevant somatizaton symptoms (PHQ-15 ≥11)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1175,7 +1098,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PTSD+ (at least one PCL-5 domain)</t>
+          <t>PTSD symptoms (at least one PCL-5 domain positive)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16-30: 20% (n = 61)
+          <t>18-30: 20% (n = 61)
 31-65: 66% (n = 202)
 &gt;65: 14% (n = 44)</t>
         </is>

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -714,11 +714,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ski/snowboard/cross-country: 64% (n = 197)
+          <t>alpine skiing/snowboarding: 59% (n = 180)
+ski touring/freeride: 2.9% (n = 9)
+cross-country skiing: 5.5% (n = 17)
 sledding: 3.9% (n = 12)
-climbing/hiking/mountaineering/skitour: 14% (n = 42)
+ice climbing: 0.33% (n = 1)
+hiking: 5.5% (n = 17)
+climbing: 3.6% (n = 11)
+mountaineering: 0.65% (n = 2)
 biking: 16% (n = 48)
-other: 2.6% (n = 8)
+air sport: 0.33% (n = 1)
+water sport: 1.6% (n = 5)
+other: 1.3% (n = 4)
 n = 307</t>
         </is>
       </c>
@@ -962,7 +969,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.3% (n = 7)</t>
+          <t>2.9% (n = 9)</t>
         </is>
       </c>
     </row>
@@ -982,12 +989,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Clinically relevant depression symptoms (PHQ-9 ≥11)</t>
+          <t>Clinically relevant depression symptoms (PHQ-9 ≥10)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.5% (n = 17)</t>
+          <t>7.2% (n = 22)</t>
         </is>
       </c>
     </row>

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -715,18 +715,18 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>alpine skiing/snowboarding: 59% (n = 180)
-ski touring/freeride: 2.9% (n = 9)
-cross-country skiing: 5.5% (n = 17)
-sledding: 3.9% (n = 12)
+ski touring/freeride: 3% (n = 9)
+cross-country skiing: 5.6% (n = 17)
+sledding: 4% (n = 12)
 ice climbing: 0.33% (n = 1)
-hiking: 5.5% (n = 17)
+hiking: 5.6% (n = 17)
 climbing: 3.6% (n = 11)
-mountaineering: 0.65% (n = 2)
+mountaineering: 0.66% (n = 2)
 biking: 16% (n = 48)
-air sport: 0.33% (n = 1)
-water sport: 1.6% (n = 5)
+air sports: 0.33% (n = 1)
+water sports: 0.33% (n = 1)
 other: 1.3% (n = 4)
-n = 307</t>
+n = 303</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Clinically relevant somatizaton symptoms (PHQ-15 ≥11)</t>
+          <t>Clinically relevant somatizaton symptoms (PHQ-15 ≥10)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4.9% (n = 15)</t>
+          <t>5.9% (n = 18)</t>
         </is>
       </c>
     </row>
